--- a/pred_ohlcv/54_21/2020-01-11 PCM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 PCM ohlcv.xlsx
@@ -5462,7 +5462,7 @@
         <v>-306731.4584</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-250939.4584</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-264702.4584</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-280811.4584</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-261627.4584</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-282815.4584</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-296290.0382</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-278103.0382</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-277506.0382</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-277506.0382</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-277506.0382</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-277506.0382</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-296229.0382</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-262923.0382</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-281103.0382</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-281103.0382</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-281103.0382</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-281103.0382</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-277336.0382</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-277336.0382</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-233428.0382</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-233428.0382</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>4690082.366618814</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>4494081.445118814</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>4549301.051218814</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>4520155.320218815</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>4627140.534931844</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>4096418.84218242</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>4033987.39208242</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>4184540.45858242</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>3934146.857400594</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>3718314.554400594</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>3735848.554400594</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>3718516.554400594</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>3730224.554400594</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>3717073.554400594</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>3717073.554400594</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>3717073.554400594</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>3694471.554400594</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>3638931.940100594</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>3575907.249400594</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>3464066.900700594</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>3464066.900700594</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>2935200.469100594</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>2964257.869600594</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>2824746.486500593</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>2949074.732200593</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>2966517.732200593</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>2981120.732200593</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>2917587.458000593</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>2309571.270300593</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>2005435.933100593</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-1392318.418380178</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-1587429.635950364</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-1576322.635950364</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-1576322.635950364</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-1576322.635950364</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-1576322.635950364</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-1586937.561550364</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-1387504.204350364</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-1375539.204350364</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-1375539.204350364</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-1372281.204350364</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-1389220.204350364</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-1389220.204350364</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-1389220.204350364</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-1375744.851650364</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-1375744.851650364</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-1391114.636850364</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-1391014.636850364</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-1401576.636850364</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-1675005.684250364</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-1663775.684250364</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-1633698.602250364</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-1621030.602250364</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-1608207.602250364</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-1543678.823161232</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-1520958.823161232</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-1520958.823161232</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-1520958.823161232</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-1520958.823161232</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-1520958.823161232</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-1531076.823161232</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-1531076.823161232</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-1512646.823161232</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-1533516.823161232</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-1554334.823161232</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-1554334.823161232</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-1544777.823161232</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-1571057.823161232</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-1571057.823161232</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-1507020.688061232</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-1528422.688061232</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-1528422.688061232</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-1513057.688061232</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-1513057.688061232</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-1528483.688061232</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-1505694.688061232</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-1523878.688061232</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-1523878.688061232</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-1591057.924061232</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-1612950.924061232</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-1628712.924061232</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-1647457.924061232</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-1647457.924061232</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-1664887.924061232</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-1652811.924061232</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-1634139.924061232</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-1634139.924061232</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-1649599.924061232</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-1649599.924061232</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-1649599.924061232</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-1668944.924061232</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-1684328.924061232</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-1696368.924061232</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-2017784.924061232</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-1999406.924061232</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-1988632.924061232</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-944908.4082612317</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 PCM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 PCM ohlcv.xlsx
@@ -5462,7 +5462,7 @@
         <v>-306731.4584</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-295014.4584</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-295014.4584</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-271493.4584</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-250939.4584</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-280811.4584</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-261627.4584</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-261627.4584</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-282815.4584</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-296290.0382</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-278103.0382</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-277506.0382</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-277506.0382</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-277506.0382</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-277506.0382</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-296229.0382</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-262923.0382</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-281103.0382</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-281103.0382</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-281103.0382</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-281103.0382</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-277336.0382</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-277336.0382</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-233428.0382</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-233428.0382</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-233428.0382</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-250666.0382</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-264582.0382</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-287061.0382</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-301277.0382</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-301277.0382</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-301277.0382</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-289208.0382</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-268019.0382</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-256051.0382</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-256051.0382</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-237835.0382</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-224228.0382</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-224228.0382</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-224228.0382</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-205861.0382</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-180532.0382</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-180532.0382</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-162184.0382</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-147140.0382</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-147140.0382</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-127896.0382</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-127896.0382</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-145072.0382</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-153994.897279847</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-143931.897279847</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-143931.897279847</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-143931.897279847</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-143931.897279847</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-131060.897279847</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-104125.897279847</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>4690082.366618814</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>4494081.445118814</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>4549301.051218814</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>4520155.320218815</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>4627140.534931844</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>4096418.84218242</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>4033987.39208242</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>3934146.857400594</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>3718314.554400594</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>3735848.554400594</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>3718516.554400594</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>3730224.554400594</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>3717073.554400594</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>3464066.900700594</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>3464066.900700594</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3192565.966500594</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>2935200.469100594</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>2964257.869600594</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>2824746.486500593</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>2949074.732200593</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>2966517.732200593</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>2981120.732200593</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>2917587.458000593</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>2309571.270300593</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>2005435.933100593</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-1392318.418380178</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-1587429.635950364</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-1576322.635950364</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-1576322.635950364</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-1576322.635950364</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-1576322.635950364</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-1586937.561550364</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-1387504.204350364</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-1375539.204350364</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-1375539.204350364</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-1372281.204350364</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-1389220.204350364</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-1389220.204350364</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-1389220.204350364</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-1375744.851650364</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-1375744.851650364</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-1675005.684250364</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-1663775.684250364</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-1633698.602250364</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-1621030.602250364</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-1608207.602250364</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-1543678.823161232</v>
       </c>
       <c r="H1122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-1520958.823161232</v>
       </c>
       <c r="H1123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-1520958.823161232</v>
       </c>
       <c r="H1125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-1520958.823161232</v>
       </c>
       <c r="H1126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-1520958.823161232</v>
       </c>
       <c r="H1127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-1520958.823161232</v>
       </c>
       <c r="H1128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-1531076.823161232</v>
       </c>
       <c r="H1129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-1531076.823161232</v>
       </c>
       <c r="H1130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-1512646.823161232</v>
       </c>
       <c r="H1131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-1533516.823161232</v>
       </c>
       <c r="H1132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-1554334.823161232</v>
       </c>
       <c r="H1133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-1554334.823161232</v>
       </c>
       <c r="H1134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-1544777.823161232</v>
       </c>
       <c r="H1135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-1571057.823161232</v>
       </c>
       <c r="H1136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-1571057.823161232</v>
       </c>
       <c r="H1137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-1507020.688061232</v>
       </c>
       <c r="H1138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-1528422.688061232</v>
       </c>
       <c r="H1139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-1528422.688061232</v>
       </c>
       <c r="H1140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-1513057.688061232</v>
       </c>
       <c r="H1141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-1513057.688061232</v>
       </c>
       <c r="H1142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-1528483.688061232</v>
       </c>
       <c r="H1143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-1505694.688061232</v>
       </c>
       <c r="H1144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-1523878.688061232</v>
       </c>
       <c r="H1145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-1523878.688061232</v>
       </c>
       <c r="H1146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-1591057.924061232</v>
       </c>
       <c r="H1148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-1612950.924061232</v>
       </c>
       <c r="H1149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-1628712.924061232</v>
       </c>
       <c r="H1150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-1647457.924061232</v>
       </c>
       <c r="H1151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-1647457.924061232</v>
       </c>
       <c r="H1152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-1664887.924061232</v>
       </c>
       <c r="H1153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-1652811.924061232</v>
       </c>
       <c r="H1154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-1634139.924061232</v>
       </c>
       <c r="H1155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-1634139.924061232</v>
       </c>
       <c r="H1156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-1649599.924061232</v>
       </c>
       <c r="H1157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-1649599.924061232</v>
       </c>
       <c r="H1158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-1649599.924061232</v>
       </c>
       <c r="H1159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-1668944.924061232</v>
       </c>
       <c r="H1160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-1684328.924061232</v>
       </c>
       <c r="H1161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-1696368.924061232</v>
       </c>
       <c r="H1162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-2017784.924061232</v>
       </c>
       <c r="H1163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-1999406.924061232</v>
       </c>
       <c r="H1164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-1988632.924061232</v>
       </c>
       <c r="H1165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-944908.4082612317</v>
       </c>
       <c r="H1166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
